--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_732_2024-05-30_PH_60/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_732_2024-05-30_PH_60/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.018903458</t>
+          <t>0.036400698</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.10023023</t>
+          <t>0.113513395</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,19 +515,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.014565209</t>
+          <t>0.02593022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.08527572</t>
+          <t>0.0987187</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.12338062</t>
+          <t>0.097857475</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.2807231</t>
+          <t>0.23871736</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0838028</t>
+          <t>0.08362892</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.20639406</t>
+          <t>0.20734085</t>
         </is>
       </c>
       <c r="D5" t="n">
